--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD98D2-CBBF-4898-892A-9C53F38739B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5A936-497A-417D-8A5F-15C4B2348692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -503,9 +503,6 @@
     <t>--year -y</t>
   </si>
   <si>
-    <t>--structure -s</t>
-  </si>
-  <si>
     <t>--output -o</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
     <t>short/summary/ detailed/full</t>
   </si>
   <si>
-    <t>screen/md/join</t>
-  </si>
-  <si>
     <t>path/-</t>
   </si>
   <si>
@@ -708,9 +702,6 @@
   </si>
   <si>
     <t>--verbose -v</t>
-  </si>
-  <si>
-    <t>true/false</t>
   </si>
   <si>
     <t>Тип сущности</t>
@@ -929,12 +920,21 @@
   <si>
     <t>Файлы доступны для записи</t>
   </si>
+  <si>
+    <t>screen/md/json</t>
+  </si>
+  <si>
+    <t>--structure -st</t>
+  </si>
+  <si>
+    <t>critical/ error/ warning/ info/ debug/ notset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +982,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1100,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1143,6 +1150,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1661,43 +1671,43 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1707,37 +1717,37 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1749,43 +1759,43 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -1842,22 +1852,22 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>69</v>
@@ -1883,19 +1893,19 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1913,19 +1923,19 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1943,19 +1953,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2030,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79708BE6-27A9-456F-B60E-C1C786FD1BD6}">
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2041,27 +2051,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2073,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,840 +2116,840 @@
         <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L3" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L4" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L5" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L7" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L8" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L9" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L10" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L12" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L13" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L15" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L16" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L17" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L18" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L19" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2948,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>9</v>
@@ -2965,16 +2975,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2982,67 +2992,67 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3057,7 +3067,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3084,12 +3094,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3097,25 +3107,25 @@
         <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3133,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3141,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,10 +3162,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,10 +3186,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,31 +3229,31 @@
         <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3271,21 +3281,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,7 +3303,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -3303,7 +3313,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -3313,7 +3323,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3323,7 +3333,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -3333,10 +3343,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>73</v>
@@ -3345,10 +3355,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>73</v>
@@ -3357,10 +3367,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
@@ -3369,10 +3379,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>73</v>
@@ -3381,10 +3391,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>73</v>
@@ -3393,10 +3403,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>73</v>
@@ -3405,10 +3415,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>73</v>
@@ -3417,10 +3427,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>73</v>
@@ -3429,7 +3439,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3437,7 +3447,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -3452,13 +3462,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -3467,7 +3477,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -3477,7 +3487,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3485,7 +3495,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3493,7 +3503,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3509,7 +3519,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3522,10 +3532,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -3535,7 +3545,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -3545,7 +3555,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3553,7 +3563,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3561,7 +3571,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3569,7 +3579,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3577,7 +3587,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3593,7 +3603,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3601,17 +3611,17 @@
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3619,7 +3629,7 @@
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3627,7 +3637,7 @@
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3635,7 +3645,7 @@
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3643,7 +3653,7 @@
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3651,7 +3661,7 @@
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3659,7 +3669,7 @@
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3687,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3695,7 +3705,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3711,40 +3721,40 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3759,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3767,10 +3777,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -3801,68 +3811,68 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5A936-497A-417D-8A5F-15C4B2348692}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38529D-9EB5-4CCF-8B40-4EA756C38723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="229">
   <si>
     <t>Название части</t>
   </si>
@@ -701,9 +701,6 @@
     <t>Период/ По названию месяца/ По номеру недели/ по номеру года/ за текущий месяц/ за прошлый месяц/ за текущую неделю/ за прошлую неделю</t>
   </si>
   <si>
-    <t>--verbose -v</t>
-  </si>
-  <si>
     <t>Тип сущности</t>
   </si>
   <si>
@@ -925,9 +922,6 @@
   </si>
   <si>
     <t>--structure -st</t>
-  </si>
-  <si>
-    <t>critical/ error/ warning/ info/ debug/ notset</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1127,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1150,9 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,23 +1463,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1671,43 +1665,43 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1717,37 +1711,37 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1759,43 +1753,43 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -1852,22 +1846,22 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>69</v>
@@ -1893,19 +1887,19 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1923,19 +1917,19 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1953,19 +1947,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2051,27 +2045,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2083,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2128,7 @@
         <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>92</v>
@@ -2142,11 +2136,9 @@
       <c r="K2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>94</v>
       </c>
@@ -2175,16 +2167,14 @@
         <v>124</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>99</v>
@@ -2211,16 +2201,14 @@
         <v>124</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -2245,16 +2233,14 @@
         <v>124</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -2279,16 +2265,14 @@
         <v>124</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2313,16 +2297,14 @@
         <v>124</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2347,16 +2329,14 @@
         <v>124</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>103</v>
@@ -2383,16 +2363,14 @@
         <v>124</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
@@ -2417,16 +2395,14 @@
         <v>124</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -2451,16 +2427,14 @@
         <v>124</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2485,16 +2459,14 @@
         <v>124</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
@@ -2519,16 +2491,14 @@
         <v>124</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -2553,16 +2523,14 @@
         <v>124</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>107</v>
       </c>
@@ -2591,16 +2559,14 @@
         <v>124</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2625,16 +2591,14 @@
         <v>124</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -2659,16 +2623,14 @@
         <v>124</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
@@ -2693,16 +2655,14 @@
         <v>124</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -2727,16 +2687,14 @@
         <v>124</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2761,16 +2719,14 @@
         <v>124</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>108</v>
       </c>
@@ -2804,11 +2760,9 @@
       <c r="K21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>97</v>
@@ -2840,11 +2794,9 @@
       <c r="K22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>97</v>
@@ -2876,11 +2828,9 @@
       <c r="K23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>97</v>
@@ -2912,11 +2862,9 @@
       <c r="K24" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>97</v>
@@ -2948,9 +2896,7 @@
       <c r="K25" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="15" t="s">
-        <v>230</v>
-      </c>
+      <c r="L25" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
@@ -3120,12 +3066,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,10 +3108,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,10 +3132,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,21 +3227,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -3313,7 +3259,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -3323,7 +3269,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3333,7 +3279,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -3343,10 +3289,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>73</v>
@@ -3355,10 +3301,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>73</v>
@@ -3367,10 +3313,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
@@ -3379,10 +3325,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>73</v>
@@ -3391,10 +3337,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>73</v>
@@ -3403,10 +3349,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>73</v>
@@ -3415,10 +3361,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>73</v>
@@ -3427,10 +3373,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>73</v>
@@ -3439,7 +3385,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3447,7 +3393,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -3465,10 +3411,10 @@
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -3477,7 +3423,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -3487,7 +3433,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3495,7 +3441,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3503,7 +3449,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3519,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3555,7 +3501,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3563,7 +3509,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3603,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3611,17 +3557,17 @@
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3629,7 +3575,7 @@
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3637,7 +3583,7 @@
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3645,7 +3591,7 @@
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3653,7 +3599,7 @@
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3661,7 +3607,7 @@
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3669,7 +3615,7 @@
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3697,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3705,7 +3651,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3721,40 +3667,40 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3769,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3777,10 +3723,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D55" s="3"/>
     </row>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38529D-9EB5-4CCF-8B40-4EA756C38723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C019324-C892-49E9-B967-55CE138449D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="231">
   <si>
     <t>Название части</t>
   </si>
@@ -641,12 +641,6 @@
     <t>Путь для сохранения dataframe</t>
   </si>
   <si>
-    <t>log_path</t>
-  </si>
-  <si>
-    <t>Путь для сохранения log</t>
-  </si>
-  <si>
     <t>--entityname -e</t>
   </si>
   <si>
@@ -922,6 +916,18 @@
   </si>
   <si>
     <t>--structure -st</t>
+  </si>
+  <si>
+    <t>Доступна папка для хранения логов</t>
+  </si>
+  <si>
+    <t>Есть файл для хранения логов</t>
+  </si>
+  <si>
+    <t>Файл настроек формата json</t>
+  </si>
+  <si>
+    <t>JSON распознан</t>
   </si>
 </sst>
 </file>
@@ -1665,43 +1671,43 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1711,37 +1717,37 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1753,43 +1759,43 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -1846,22 +1852,22 @@
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>69</v>
@@ -1887,19 +1893,19 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1917,19 +1923,19 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1947,19 +1953,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2032,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79708BE6-27A9-456F-B60E-C1C786FD1BD6}">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,27 +2051,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L25"/>
     </sheetView>
   </sheetViews>
@@ -2110,25 +2136,25 @@
         <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>92</v>
@@ -2167,7 +2193,7 @@
         <v>124</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>125</v>
@@ -2201,7 +2227,7 @@
         <v>124</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>125</v>
@@ -2233,7 +2259,7 @@
         <v>124</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>125</v>
@@ -2265,7 +2291,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>125</v>
@@ -2297,7 +2323,7 @@
         <v>124</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>125</v>
@@ -2323,13 +2349,13 @@
         <v>98</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>124</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>125</v>
@@ -2363,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>125</v>
@@ -2395,7 +2421,7 @@
         <v>124</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>125</v>
@@ -2427,7 +2453,7 @@
         <v>124</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>125</v>
@@ -2453,13 +2479,13 @@
         <v>97</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>124</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>125</v>
@@ -2491,7 +2517,7 @@
         <v>124</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>125</v>
@@ -2517,13 +2543,13 @@
         <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>124</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>125</v>
@@ -2535,10 +2561,10 @@
         <v>107</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>95</v>
@@ -2559,7 +2585,7 @@
         <v>124</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>125</v>
@@ -2570,7 +2596,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>97</v>
@@ -2591,7 +2617,7 @@
         <v>124</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>125</v>
@@ -2602,7 +2628,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>97</v>
@@ -2611,19 +2637,19 @@
         <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>124</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>125</v>
@@ -2634,7 +2660,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>97</v>
@@ -2646,16 +2672,16 @@
         <v>97</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>124</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>125</v>
@@ -2666,7 +2692,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>97</v>
@@ -2675,7 +2701,7 @@
         <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>97</v>
@@ -2687,7 +2713,7 @@
         <v>124</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>125</v>
@@ -2698,7 +2724,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>97</v>
@@ -2707,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>97</v>
@@ -2719,7 +2745,7 @@
         <v>124</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>125</v>
@@ -2777,13 +2803,13 @@
         <v>97</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>97</v>
@@ -2814,10 +2840,10 @@
         <v>97</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>97</v>
@@ -2845,7 +2871,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>97</v>
@@ -2879,7 +2905,7 @@
         <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>97</v>
@@ -3040,12 +3066,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -3058,20 +3084,20 @@
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,10 +3134,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,10 +3158,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3227,21 +3253,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,7 +3275,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -3259,7 +3285,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -3269,7 +3295,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3279,7 +3305,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -3289,10 +3315,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>73</v>
@@ -3301,10 +3327,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>73</v>
@@ -3313,10 +3339,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
@@ -3325,10 +3351,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>73</v>
@@ -3337,10 +3363,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>73</v>
@@ -3349,10 +3375,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>73</v>
@@ -3361,10 +3387,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>73</v>
@@ -3373,10 +3399,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>73</v>
@@ -3385,7 +3411,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3393,7 +3419,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -3411,10 +3437,10 @@
         <v>107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>73</v>
@@ -3423,7 +3449,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -3433,7 +3459,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3441,7 +3467,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3449,7 +3475,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3465,7 +3491,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3501,7 +3527,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3509,7 +3535,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3549,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3557,17 +3583,17 @@
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3575,7 +3601,7 @@
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3583,7 +3609,7 @@
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3591,7 +3617,7 @@
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3599,7 +3625,7 @@
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3607,7 +3633,7 @@
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3615,7 +3641,7 @@
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3643,7 +3669,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3651,7 +3677,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3667,40 +3693,40 @@
         <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3715,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3723,10 +3749,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -3743,10 +3769,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1941B-FA66-4669-9C83-7A8EF9A73A7F}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,25 +3826,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="B11" t="s">
-        <v>153</v>
+      <c r="B10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C019324-C892-49E9-B967-55CE138449D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76E25D-26F7-4AE8-934A-DF043606A94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="252">
   <si>
     <t>Название части</t>
   </si>
@@ -139,11 +139,6 @@
   </si>
   <si>
     <t># Отчет за период с {дата начала} по {дата конца}</t>
-  </si>
-  <si>
-    <t>Начало периода: {дата начала}
-Конец периода: {дата конца}
-Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
   <si>
     <t>В базе обнаружены записи за {количество обнаруженный записей} дней
@@ -210,15 +205,6 @@
   <si>
     <t>За период были изучались заметки:
 [{Ссылки на заметки}]</t>
-  </si>
-  <si>
-    <t>Начало недели: {дата начала}
-Конец недели: {дата конца}
-Номер недели: {номер недели}</t>
-  </si>
-  <si>
-    <t>Начало месяца: {дата начала}
-Конец месяца: {дата конца}</t>
   </si>
   <si>
     <t>Отчет по сущности</t>
@@ -306,10 +292,6 @@
     </r>
   </si>
   <si>
-    <t>Период: {дата начала} - {дата конца}
-Количество дней в периоде: {количестов дней в периоде}</t>
-  </si>
-  <si>
     <t>Примечание</t>
   </si>
   <si>
@@ -351,11 +333,6 @@
 # Отчет по эпику {название эпика} за период  с {дата начала} по {дата конца}</t>
   </si>
   <si>
-    <t>Период: {дата начала} - {дата конца}
-Количество дней в периоде: {количестов дней в периоде}
-Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
-  </si>
-  <si>
     <t>Дата первого упоминания эпика: {дата первой записи в базе, содержащей запись по эпику}
 Дата последнего упоминания эпика: {дата последней записи в базе, содержащей запись по эпику}</t>
   </si>
@@ -366,12 +343,6 @@
   <si>
     <t>Всего дней, в которые упоминался эпик: {количество дней, в которые упоминался эпик}
 Процент дней от общего количества, в которых были помидорки по эпику: {Процент дней от общего количества, в которых были помидорки по эпику}</t>
-  </si>
-  <si>
-    <t>Период: {дата начала} - {дата конца}
-Количество дней в периоде: {количестов дней в периоде}
-Эпик, к которому относится проект: {название эпика, к которому относится проект}
-Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
   </si>
   <si>
     <t xml:space="preserve">Перечень задач проекта: [{Название проекта: количестов помидоров - процент помидорок от общего в эпике}]
@@ -390,13 +361,6 @@
     <t># Отчет по задаче {название задачи}
 либо
 # Отчет по задаче {название задачи} за период с {дата начала} по {дата конца}</t>
-  </si>
-  <si>
-    <t>Период: {дата начала} - {дата конца}
-Количество дней в периоде: {количестов дней в периоде}
-Проект, к которому относится задача: {название проекта, к которому относится задача}
-Эпик, к которому относится проект: {название эпика, к которому относится проект}
-Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
   </si>
   <si>
     <t>Дата первого упоминания задачи: {дата первой записи в базе, содержащей запись по задаче}
@@ -482,9 +446,6 @@
     <t>экран/файл markdown/файл json/не выводить</t>
   </si>
   <si>
-    <t>Вывод лога на экран</t>
-  </si>
-  <si>
     <t>Сохранение DataFrame</t>
   </si>
   <si>
@@ -681,9 +642,6 @@
   </si>
   <si>
     <t>Номатив помидорок на день (по-умолчанию 14)</t>
-  </si>
-  <si>
-    <t>Дата задчи</t>
   </si>
   <si>
     <t>Чем создана задача</t>
@@ -928,6 +886,118 @@
   </si>
   <si>
     <t>JSON распознан</t>
+  </si>
+  <si>
+    <t>Дата задачи</t>
+  </si>
+  <si>
+    <t>report_maker</t>
+  </si>
+  <si>
+    <t>report_date</t>
+  </si>
+  <si>
+    <t>report_type</t>
+  </si>
+  <si>
+    <t>report_time_type</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>entity_type</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>Наличиче заголовка</t>
+  </si>
+  <si>
+    <t>is_title</t>
+  </si>
+  <si>
+    <t>is_period</t>
+  </si>
+  <si>
+    <t>is_aggregated</t>
+  </si>
+  <si>
+    <t>is_detailed</t>
+  </si>
+  <si>
+    <t>is_links</t>
+  </si>
+  <si>
+    <t>aggregated_size</t>
+  </si>
+  <si>
+    <t>links_size</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>is_raw</t>
+  </si>
+  <si>
+    <t>output_path</t>
+  </si>
+  <si>
+    <t>daily_path</t>
+  </si>
+  <si>
+    <t>kbase_path</t>
+  </si>
+  <si>
+    <t>is_source</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Начало периода: {дата начала}
+Конец периода: {дата конца}
+Количество дней в периоде: {количестов дней в периоде}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Начало недели: {дата начала}
+Конец недели: {дата конца}
+Номер недели: {номер недели}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Начало месяца: {дата начала}
+Конец месяца: {дата конца}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Период: {дата начала} - {дата конца}
+Количество дней в периоде: {количестов дней в периоде}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Период: {дата начала} - {дата конца}
+Количество дней в периоде: {количестов дней в периоде}
+Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Период: {дата начала} - {дата конца}
+Количество дней в периоде: {количестов дней в периоде}
+Эпик, к которому относится проект: {название эпика, к которому относится проект}
+Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Период: {дата начала} - {дата конца}
+Количество дней в периоде: {количестов дней в периоде}
+Проект, к которому относится задача: {название проекта, к которому относится задача}
+Эпик, к которому относится проект: {название эпика, к которому относится проект}
+Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
   </si>
 </sst>
 </file>
@@ -991,12 +1061,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1107,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,6 +1235,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,9 +1524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1566,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
@@ -1495,43 +1583,43 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1546,72 +1634,72 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1622,132 +1710,132 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1756,46 +1844,46 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -1806,83 +1894,83 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -1890,22 +1978,22 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1920,22 +2008,22 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1950,22 +2038,22 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1984,46 +2072,46 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2051,47 +2139,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L25"/>
     </sheetView>
   </sheetViews>
@@ -2115,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2130,107 +2218,107 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -2238,31 +2326,31 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -2270,31 +2358,31 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -2302,31 +2390,31 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -2334,65 +2422,65 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -2400,31 +2488,31 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -2432,31 +2520,31 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L11" s="9"/>
     </row>
@@ -2464,31 +2552,31 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -2496,31 +2584,31 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -2528,67 +2616,67 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L15" s="9"/>
     </row>
@@ -2596,31 +2684,31 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -2628,31 +2716,31 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L17" s="9"/>
     </row>
@@ -2660,31 +2748,31 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -2692,31 +2780,31 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -2724,203 +2812,203 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -2930,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>9</v>
@@ -2939,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>12</v>
@@ -2947,16 +3035,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2964,67 +3052,67 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3046,186 +3134,257 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B14" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B15" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B17" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B19" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>115</v>
+      <c r="B20" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3253,21 +3412,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,143 +3434,143 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3419,11 +3578,11 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,32 +3593,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3467,7 +3626,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3475,7 +3634,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3491,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3504,30 +3663,30 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3535,7 +3694,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3543,7 +3702,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3551,7 +3710,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3559,7 +3718,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3575,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3583,17 +3742,17 @@
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3601,7 +3760,7 @@
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3609,7 +3768,7 @@
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3617,7 +3776,7 @@
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3625,7 +3784,7 @@
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3633,7 +3792,7 @@
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3641,7 +3800,7 @@
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3669,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3677,7 +3836,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3690,43 +3849,43 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3741,7 +3900,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3749,10 +3908,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -3771,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1941B-FA66-4669-9C83-7A8EF9A73A7F}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3783,60 +3942,60 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
         <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76E25D-26F7-4AE8-934A-DF043606A94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DCCC65-FF54-4805-A71C-5C371BDE1218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="256">
   <si>
     <t>Название части</t>
   </si>
@@ -467,9 +467,6 @@
     <t>--output -o</t>
   </si>
   <si>
-    <t>--reportpath -rp</t>
-  </si>
-  <si>
     <t>period</t>
   </si>
   <si>
@@ -957,47 +954,63 @@
     <t>is_source</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t>Заключение</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Начало периода: {дата начала}
 Конец периода: {дата конца}
 Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Начало недели: {дата начала}
 Конец недели: {дата конца}
 Номер недели: {номер недели}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Начало месяца: {дата начала}
 Конец месяца: {дата конца}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Период: {дата начала} - {дата конца}
 Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Период: {дата начала} - {дата конца}
 Количество дней в периоде: {количестов дней в периоде}
 Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Период: {дата начала} - {дата конца}
 Количество дней в периоде: {количестов дней в периоде}
 Эпик, к которому относится проект: {название эпика, к которому относится проект}
 Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
   </si>
   <si>
-    <t>Дата создания отчета: {дата создания отчета}
+    <t xml:space="preserve">
 Период: {дата начала} - {дата конца}
 Количество дней в периоде: {количестов дней в периоде}
 Проект, к которому относится задача: {название проекта, к которому относится задача}
 Эпик, к которому относится проект: {название эпика, к которому относится проект}
 Тема, к которой относится эпик: {название темы, к которой относится эпик}</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: {дата создания отчета}
+Отчет создан: {программа, создавшая отчет}</t>
+  </si>
+  <si>
+    <t>Путь к папке с DataFrame</t>
+  </si>
+  <si>
+    <t>--i -rp</t>
   </si>
 </sst>
 </file>
@@ -1218,6 +1231,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1235,12 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,23 +1570,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1663,40 +1676,40 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>41</v>
@@ -1759,43 +1772,43 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -1805,37 +1818,37 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1847,43 +1860,43 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -1940,22 +1953,22 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>62</v>
@@ -1981,19 +1994,19 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2011,19 +2024,19 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2041,19 +2054,19 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2112,6 +2125,56 @@
       </c>
       <c r="P14" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2139,47 +2202,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2191,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,101 +2287,101 @@
         <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -2326,31 +2389,31 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -2358,31 +2421,31 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -2390,31 +2453,31 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -2422,65 +2485,65 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -2488,31 +2551,31 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -2520,31 +2583,31 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L11" s="9"/>
     </row>
@@ -2552,31 +2615,31 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -2584,31 +2647,31 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -2616,67 +2679,67 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L15" s="9"/>
     </row>
@@ -2684,31 +2747,31 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -2716,31 +2779,31 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L17" s="9"/>
     </row>
@@ -2748,31 +2811,31 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -2780,31 +2843,31 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -2812,203 +2875,203 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L25" s="9"/>
     </row>
@@ -3018,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>9</v>
@@ -3032,87 +3095,102 @@
       <c r="G33" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="H33" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3134,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,19 +3233,19 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>223</v>
+        <v>143</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3175,39 +3253,39 @@
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>225</v>
+      <c r="B4" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>227</v>
+        <v>146</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>228</v>
+        <v>147</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3215,30 +3293,30 @@
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>229</v>
+      <c r="B8" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>230</v>
+      <c r="B9" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>71</v>
@@ -3248,8 +3326,8 @@
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>233</v>
+      <c r="B11" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>71</v>
@@ -3259,8 +3337,8 @@
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>234</v>
+      <c r="B12" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>71</v>
@@ -3268,21 +3346,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>235</v>
+      <c r="B14" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
@@ -3292,8 +3370,8 @@
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>236</v>
+      <c r="B15" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>71</v>
@@ -3301,21 +3379,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>238</v>
+        <v>159</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>244</v>
+      <c r="B17" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>71</v>
@@ -3325,8 +3403,8 @@
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>239</v>
+      <c r="B18" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>77</v>
@@ -3336,8 +3414,8 @@
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>240</v>
+      <c r="B19" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>71</v>
@@ -3347,44 +3425,55 @@
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>241</v>
+      <c r="B20" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>243</v>
+        <v>104</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3412,21 +3501,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -3444,7 +3533,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -3454,7 +3543,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3464,7 +3553,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -3474,10 +3563,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>66</v>
@@ -3486,10 +3575,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>66</v>
@@ -3498,10 +3587,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>66</v>
@@ -3510,10 +3599,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
@@ -3522,10 +3611,10 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>66</v>
@@ -3534,10 +3623,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>66</v>
@@ -3546,10 +3635,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
@@ -3558,10 +3647,10 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>66</v>
@@ -3570,7 +3659,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3578,7 +3667,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -3593,13 +3682,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>66</v>
@@ -3608,7 +3697,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -3618,7 +3707,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -3626,7 +3715,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -3634,7 +3723,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3650,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3663,10 +3752,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -3676,7 +3765,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -3686,7 +3775,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3694,7 +3783,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3702,7 +3791,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3710,7 +3799,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3718,7 +3807,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3734,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3742,17 +3831,17 @@
     <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3760,7 +3849,7 @@
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3768,7 +3857,7 @@
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3776,7 +3865,7 @@
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3784,7 +3873,7 @@
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -3792,7 +3881,7 @@
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3800,7 +3889,7 @@
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3828,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3836,7 +3925,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3852,40 +3941,40 @@
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3900,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3908,10 +3997,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D55" s="3"/>
     </row>
@@ -3942,60 +4031,60 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DCCC65-FF54-4805-A71C-5C371BDE1218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC332FE1-3196-4692-B192-4947D59D8310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="256">
   <si>
     <t>Название части</t>
   </si>
@@ -1017,7 +1017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1072,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1202,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1236,6 +1242,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1570,23 +1579,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2252,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,7 +2344,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>88</v>
@@ -2369,7 +2378,7 @@
         <v>88</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>88</v>
@@ -2401,7 +2410,7 @@
         <v>88</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>88</v>
@@ -2433,7 +2442,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>88</v>
@@ -2465,7 +2474,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>88</v>
@@ -2497,7 +2506,7 @@
         <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>140</v>
@@ -2513,7 +2522,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>94</v>
@@ -2522,10 +2531,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>88</v>
@@ -2536,15 +2545,9 @@
       <c r="H9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2554,13 +2557,13 @@
         <v>89</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>88</v>
@@ -2592,7 +2595,7 @@
         <v>88</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>88</v>
@@ -2630,7 +2633,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>115</v>
@@ -2656,13 +2659,13 @@
         <v>88</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>115</v>
@@ -2694,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>115</v>
@@ -2708,29 +2711,25 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>115</v>
@@ -2744,16 +2743,20 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>88</v>
@@ -2788,13 +2791,13 @@
         <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>115</v>
@@ -2820,10 +2823,10 @@
         <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>141</v>
@@ -2852,13 +2855,13 @@
         <v>88</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>115</v>
@@ -2884,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>88</v>
@@ -2903,15 +2906,11 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>88</v>
-      </c>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>88</v>
@@ -2920,7 +2919,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>88</v>
@@ -2929,10 +2928,10 @@
         <v>88</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>116</v>
@@ -2940,7 +2939,9 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>88</v>
       </c>
@@ -2954,13 +2955,13 @@
         <v>88</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>88</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>88</v>
@@ -2988,10 +2989,10 @@
         <v>88</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>141</v>
@@ -3007,7 +3008,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>88</v>
@@ -3022,13 +3023,13 @@
         <v>88</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>88</v>
@@ -3041,7 +3042,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>88</v>
@@ -3056,7 +3057,7 @@
         <v>88</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>88</v>
@@ -3075,53 +3076,67 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>111</v>
@@ -3130,20 +3145,18 @@
         <v>111</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>111</v>
@@ -3154,12 +3167,8 @@
       <c r="D36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
         <v>111</v>
       </c>
@@ -3169,7 +3178,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>111</v>
@@ -3184,7 +3193,7 @@
         <v>111</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>111</v>
@@ -3194,14 +3203,58 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="A38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC332FE1-3196-4692-B192-4947D59D8310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E70214-2F1E-4126-8DE9-86EE12820873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="1095" windowWidth="15960" windowHeight="15375" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1263,6 +1263,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,28 +1557,28 @@
       <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" customWidth="1"/>
-    <col min="5" max="5" width="88.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="88.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="92.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="92.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="85" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="68.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="44.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="72.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="53.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="68.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="72.26953125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1604,7 @@
       <c r="O1" s="18"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
@@ -1644,7 +1650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1686,7 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1820,7 +1826,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1862,7 +1868,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -1908,7 +1914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +1960,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2002,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -2026,7 +2032,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -2056,7 +2062,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -2086,7 +2092,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>244</v>
       </c>
@@ -2204,52 +2210,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -2263,17 +2269,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="17.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="12" width="17.54296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +2294,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -2324,7 +2330,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>85</v>
       </c>
@@ -2360,7 +2366,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>90</v>
@@ -2394,7 +2400,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -2426,7 +2432,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -2458,7 +2464,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2490,7 +2496,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2522,7 +2528,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>94</v>
@@ -2550,7 +2556,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
@@ -2582,7 +2588,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -2614,7 +2620,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2646,7 +2652,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
@@ -2678,7 +2684,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -2710,7 +2716,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -2742,7 +2748,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>98</v>
       </c>
@@ -2778,39 +2784,39 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="D17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
@@ -2842,7 +2848,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -2874,7 +2880,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2906,7 +2912,7 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
@@ -2938,7 +2944,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -2974,7 +2980,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>88</v>
@@ -3008,7 +3014,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>88</v>
@@ -3042,7 +3048,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>88</v>
@@ -3076,7 +3082,7 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
         <v>88</v>
@@ -3110,7 +3116,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>7</v>
@@ -3134,7 +3140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>108</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>109</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>110</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>112</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -3238,22 +3244,22 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
     </row>
   </sheetData>
@@ -3271,20 +3277,20 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="27.26953125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -3293,7 +3299,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
@@ -3302,7 +3308,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>144</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
@@ -3333,7 +3339,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>147</v>
       </c>
@@ -3342,7 +3348,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>230</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>157</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
@@ -3419,7 +3425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>159</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>79</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>100</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -3507,7 +3513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>254</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
@@ -3543,21 +3549,21 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>209</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>162</v>
@@ -3593,7 +3599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>163</v>
@@ -3603,7 +3609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>164</v>
@@ -3613,7 +3619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>165</v>
@@ -3625,7 +3631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>167</v>
@@ -3637,7 +3643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>168</v>
@@ -3649,7 +3655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>169</v>
@@ -3661,7 +3667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>170</v>
@@ -3673,7 +3679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>171</v>
@@ -3685,7 +3691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>172</v>
@@ -3697,7 +3703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>173</v>
@@ -3709,7 +3715,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>174</v>
@@ -3717,7 +3723,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>175</v>
@@ -3727,13 +3733,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>98</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>178</v>
@@ -3757,7 +3763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>179</v>
@@ -3765,7 +3771,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>180</v>
@@ -3773,7 +3779,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>181</v>
@@ -3781,13 +3787,13 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -3797,13 +3803,13 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>87</v>
@@ -3825,7 +3831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>183</v>
@@ -3833,7 +3839,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>184</v>
@@ -3841,7 +3847,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>96</v>
@@ -3849,7 +3855,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>97</v>
@@ -3857,7 +3863,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>93</v>
@@ -3865,13 +3871,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
@@ -3881,7 +3887,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>186</v>
@@ -3891,7 +3897,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>188</v>
@@ -3899,7 +3905,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>189</v>
@@ -3907,7 +3913,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>190</v>
@@ -3915,7 +3921,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>191</v>
@@ -3923,7 +3929,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>192</v>
@@ -3931,7 +3937,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>193</v>
@@ -3939,7 +3945,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>194</v>
@@ -3947,25 +3953,25 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -3975,7 +3981,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>196</v>
@@ -3983,13 +3989,13 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
@@ -4001,7 +4007,7 @@
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>199</v>
@@ -4011,7 +4017,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>201</v>
@@ -4021,7 +4027,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>202</v>
@@ -4031,13 +4037,13 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -4047,7 +4053,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>204</v>
@@ -4057,7 +4063,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4076,18 +4082,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4127,12 +4133,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -4151,7 +4157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E70214-2F1E-4126-8DE9-86EE12820873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD666F64-CD17-47F7-A033-1BA7D840A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="262">
   <si>
     <t>Название части</t>
   </si>
@@ -710,9 +710,6 @@
     <t>вид отчета</t>
   </si>
   <si>
-    <t>описание периода</t>
-  </si>
-  <si>
     <t>наличие title</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
   </si>
   <si>
     <t>наличие source</t>
-  </si>
-  <si>
-    <t>dataframe отчета</t>
   </si>
   <si>
     <t>норматив помидорок</t>
@@ -975,11 +969,6 @@
     <t xml:space="preserve">
 Начало месяца: {дата начала}
 Конец месяца: {дата конца}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Период: {дата начала} - {дата конца}
-Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1011,6 +1000,37 @@
   </si>
   <si>
     <t>--i -rp</t>
+  </si>
+  <si>
+    <t>Кто создает</t>
+  </si>
+  <si>
+    <t>MetadataPartMaker</t>
+  </si>
+  <si>
+    <t>TitlePartMaker</t>
+  </si>
+  <si>
+    <t>PeriodPartMaker</t>
+  </si>
+  <si>
+    <t>AggregatedPartMaker</t>
+  </si>
+  <si>
+    <t>DetailedPartMaker</t>
+  </si>
+  <si>
+    <t>LinkedPartMaker</t>
+  </si>
+  <si>
+    <t>SourcePartMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Период: {дата начала} - {дата конца}
+либо 
+Период: {дата первого упоминания темы} - {сегодняшний день}
+Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
 </sst>
 </file>
@@ -1246,6 +1266,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1263,12 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,9 +1572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,23 +1605,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1694,37 +1714,37 @@
         <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>41</v>
@@ -2144,52 +2164,52 @@
     </row>
     <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2217,47 +2237,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2320,13 +2340,13 @@
         <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -2359,7 +2379,7 @@
         <v>115</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>116</v>
@@ -2393,7 +2413,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>116</v>
@@ -2425,7 +2445,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>116</v>
@@ -2457,7 +2477,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>116</v>
@@ -2489,7 +2509,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>116</v>
@@ -2521,7 +2541,7 @@
         <v>115</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>116</v>
@@ -2581,7 +2601,7 @@
         <v>115</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>116</v>
@@ -2613,7 +2633,7 @@
         <v>115</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>116</v>
@@ -2645,7 +2665,7 @@
         <v>115</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>116</v>
@@ -2677,7 +2697,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>116</v>
@@ -2709,7 +2729,7 @@
         <v>115</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>116</v>
@@ -2741,7 +2761,7 @@
         <v>115</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>116</v>
@@ -2777,7 +2797,7 @@
         <v>115</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>116</v>
@@ -2785,36 +2805,36 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="D17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K17" s="19" t="s">
+      <c r="J17" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
@@ -2841,7 +2861,7 @@
         <v>115</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>116</v>
@@ -2873,7 +2893,7 @@
         <v>115</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>116</v>
@@ -2905,7 +2925,7 @@
         <v>115</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>116</v>
@@ -2937,7 +2957,7 @@
         <v>115</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>116</v>
@@ -3137,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3273,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3292,10 +3312,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3304,7 +3324,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3313,7 +3333,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>107</v>
@@ -3324,7 +3344,7 @@
         <v>144</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>145</v>
@@ -3335,7 +3355,7 @@
         <v>146</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -3344,7 +3364,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3353,7 +3373,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>102</v>
@@ -3364,7 +3384,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>103</v>
@@ -3372,10 +3392,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>71</v>
@@ -3386,7 +3406,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>71</v>
@@ -3397,7 +3417,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>71</v>
@@ -3408,7 +3428,7 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>158</v>
@@ -3419,7 +3439,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
@@ -3430,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>71</v>
@@ -3441,7 +3461,7 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>158</v>
@@ -3452,7 +3472,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>71</v>
@@ -3463,7 +3483,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>77</v>
@@ -3474,7 +3494,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>71</v>
@@ -3485,7 +3505,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>101</v>
@@ -3496,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>101</v>
@@ -3507,7 +3527,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>101</v>
@@ -3515,7 +3535,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>120</v>
@@ -3543,41 +3563,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="19.90625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3588,8 +3612,11 @@
       <c r="D3" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>162</v>
@@ -3598,8 +3625,11 @@
       <c r="D4" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>163</v>
@@ -3608,466 +3638,564 @@
       <c r="D5" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E33" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E35" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E37" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E38" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E39" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E40" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E45" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="E48" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="E52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD666F64-CD17-47F7-A033-1BA7D840A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFAC3B7-48BE-4A8D-A86C-B47BB5188B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
   <si>
     <t>Название части</t>
   </si>
@@ -1031,6 +1031,9 @@
 либо 
 Период: {дата первого упоминания темы} - {сегодняшний день}
 Количество дней в периоде: {количестов дней в периоде}</t>
+  </si>
+  <si>
+    <t>Имена</t>
   </si>
 </sst>
 </file>
@@ -3293,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3563,28 +3566,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>207</v>
       </c>
@@ -3592,16 +3596,19 @@
         <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3609,250 +3616,269 @@
         <v>161</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -3861,18 +3887,20 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>85</v>
       </c>
@@ -3880,89 +3908,97 @@
         <v>86</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -3971,108 +4007,118 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -4081,90 +4127,98 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -4173,29 +4227,32 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFAC3B7-48BE-4A8D-A86C-B47BB5188B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B6606-4FEE-4555-ABC1-764315D2126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="296">
   <si>
     <t>Название части</t>
   </si>
@@ -764,9 +764,6 @@
     <t>кол-во дней в периоде</t>
   </si>
   <si>
-    <t>номер года</t>
-  </si>
-  <si>
     <t>количество осмысленных помидорок</t>
   </si>
   <si>
@@ -1034,6 +1031,108 @@
   </si>
   <si>
     <t>Имена</t>
+  </si>
+  <si>
+    <t>entity_theme</t>
+  </si>
+  <si>
+    <t>entity_epic</t>
+  </si>
+  <si>
+    <t>entity_project</t>
+  </si>
+  <si>
+    <t>наличие footer</t>
+  </si>
+  <si>
+    <t>is_footer</t>
+  </si>
+  <si>
+    <t>наличие raw</t>
+  </si>
+  <si>
+    <t>period/entity</t>
+  </si>
+  <si>
+    <t>dataframe</t>
+  </si>
+  <si>
+    <t>pandas DataFrame</t>
+  </si>
+  <si>
+    <t>датафрейм</t>
+  </si>
+  <si>
+    <t>days_num</t>
+  </si>
+  <si>
+    <t>номер недели начальной даты</t>
+  </si>
+  <si>
+    <t>start_week_num</t>
+  </si>
+  <si>
+    <t>start_month_name</t>
+  </si>
+  <si>
+    <t>start_month_num</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>номер года начальной даты</t>
+  </si>
+  <si>
+    <t>номер месяца начальной даты</t>
+  </si>
+  <si>
+    <t>название месяца начальной даты</t>
+  </si>
+  <si>
+    <t>номер года конечной даты</t>
+  </si>
+  <si>
+    <t>номер месяца конечной даты</t>
+  </si>
+  <si>
+    <t>название месяца конечной даты</t>
+  </si>
+  <si>
+    <t>номер недели конечной даты</t>
+  </si>
+  <si>
+    <t>end_year</t>
+  </si>
+  <si>
+    <t>end_month_num</t>
+  </si>
+  <si>
+    <t>end_month_name</t>
+  </si>
+  <si>
+    <t>end_week_num</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>строка периода</t>
+  </si>
+  <si>
+    <t>str_period</t>
+  </si>
+  <si>
+    <t>min_year</t>
+  </si>
+  <si>
+    <t>max_year</t>
+  </si>
+  <si>
+    <t>Минимальный год</t>
+  </si>
+  <si>
+    <t>Максимальный год</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1202,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,6 +1218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1292,6 +1397,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,37 +1828,37 @@
         <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>41</v>
@@ -2167,52 +2278,52 @@
     </row>
     <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2240,47 +2351,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2343,13 +2454,13 @@
         <v>83</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -2382,7 +2493,7 @@
         <v>115</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>116</v>
@@ -2416,7 +2527,7 @@
         <v>115</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>116</v>
@@ -2448,7 +2559,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>116</v>
@@ -2480,7 +2591,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>116</v>
@@ -2512,7 +2623,7 @@
         <v>115</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>116</v>
@@ -2544,7 +2655,7 @@
         <v>115</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>116</v>
@@ -2604,7 +2715,7 @@
         <v>115</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>116</v>
@@ -2636,7 +2747,7 @@
         <v>115</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>116</v>
@@ -2668,7 +2779,7 @@
         <v>115</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>116</v>
@@ -2700,7 +2811,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>116</v>
@@ -2732,7 +2843,7 @@
         <v>115</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>116</v>
@@ -2764,7 +2875,7 @@
         <v>115</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>116</v>
@@ -2800,7 +2911,7 @@
         <v>115</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>116</v>
@@ -2832,7 +2943,7 @@
         <v>115</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>116</v>
@@ -2864,7 +2975,7 @@
         <v>115</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>116</v>
@@ -2896,7 +3007,7 @@
         <v>115</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>116</v>
@@ -2928,7 +3039,7 @@
         <v>115</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>116</v>
@@ -2960,7 +3071,7 @@
         <v>115</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>116</v>
@@ -3160,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -3294,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="A25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3315,10 +3426,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3327,7 +3438,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3336,7 +3447,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>107</v>
@@ -3347,7 +3458,7 @@
         <v>144</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>145</v>
@@ -3358,7 +3469,7 @@
         <v>146</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -3367,7 +3478,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3376,7 +3487,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>102</v>
@@ -3387,7 +3498,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>103</v>
@@ -3395,10 +3506,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>71</v>
@@ -3409,7 +3520,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>71</v>
@@ -3420,7 +3531,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>71</v>
@@ -3431,7 +3542,7 @@
         <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>158</v>
@@ -3442,7 +3553,7 @@
         <v>73</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>71</v>
@@ -3453,7 +3564,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>71</v>
@@ -3464,7 +3575,7 @@
         <v>159</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>158</v>
@@ -3475,7 +3586,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>71</v>
@@ -3486,7 +3597,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>77</v>
@@ -3497,7 +3608,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>71</v>
@@ -3508,7 +3619,7 @@
         <v>79</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>101</v>
@@ -3519,7 +3630,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>101</v>
@@ -3530,7 +3641,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>101</v>
@@ -3538,7 +3649,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>120</v>
@@ -3557,6 +3668,24 @@
       <c r="C24" s="3" t="s">
         <v>106</v>
       </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3566,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3577,7 +3706,7 @@
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
@@ -3590,624 +3719,694 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="C22" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>256</v>
+      <c r="A27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>256</v>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>256</v>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>256</v>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F41" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F44" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -4220,30 +4419,28 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -4254,6 +4451,373 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4261,10 +4825,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1941B-FA66-4669-9C83-7A8EF9A73A7F}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4329,6 +4893,16 @@
       </c>
       <c r="B10" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B6606-4FEE-4555-ABC1-764315D2126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCD86D-CC45-409D-809D-41A8C365D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="297">
   <si>
     <t>Название части</t>
   </si>
@@ -1023,116 +1023,117 @@
     <t>SourcePartMaker</t>
   </si>
   <si>
+    <t>Имена</t>
+  </si>
+  <si>
+    <t>entity_theme</t>
+  </si>
+  <si>
+    <t>entity_epic</t>
+  </si>
+  <si>
+    <t>entity_project</t>
+  </si>
+  <si>
+    <t>наличие footer</t>
+  </si>
+  <si>
+    <t>is_footer</t>
+  </si>
+  <si>
+    <t>наличие raw</t>
+  </si>
+  <si>
+    <t>period/entity</t>
+  </si>
+  <si>
+    <t>dataframe</t>
+  </si>
+  <si>
+    <t>pandas DataFrame</t>
+  </si>
+  <si>
+    <t>датафрейм</t>
+  </si>
+  <si>
+    <t>days_num</t>
+  </si>
+  <si>
+    <t>номер недели начальной даты</t>
+  </si>
+  <si>
+    <t>start_week_num</t>
+  </si>
+  <si>
+    <t>start_month_name</t>
+  </si>
+  <si>
+    <t>start_month_num</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>номер года начальной даты</t>
+  </si>
+  <si>
+    <t>номер месяца начальной даты</t>
+  </si>
+  <si>
+    <t>название месяца начальной даты</t>
+  </si>
+  <si>
+    <t>номер года конечной даты</t>
+  </si>
+  <si>
+    <t>номер месяца конечной даты</t>
+  </si>
+  <si>
+    <t>название месяца конечной даты</t>
+  </si>
+  <si>
+    <t>номер недели конечной даты</t>
+  </si>
+  <si>
+    <t>end_year</t>
+  </si>
+  <si>
+    <t>end_month_num</t>
+  </si>
+  <si>
+    <t>end_month_name</t>
+  </si>
+  <si>
+    <t>end_week_num</t>
+  </si>
+  <si>
+    <t>Строка</t>
+  </si>
+  <si>
+    <t>строка периода</t>
+  </si>
+  <si>
+    <t>str_period</t>
+  </si>
+  <si>
+    <t>min_year</t>
+  </si>
+  <si>
+    <t>max_year</t>
+  </si>
+  <si>
+    <t>Минимальный год</t>
+  </si>
+  <si>
+    <t>Максимальный год</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Период: {дата начала} - {дата конца}
-либо 
-Период: {дата первого упоминания темы} - {сегодняшний день}
 Количество дней в периоде: {количестов дней в периоде}</t>
   </si>
   <si>
-    <t>Имена</t>
-  </si>
-  <si>
-    <t>entity_theme</t>
-  </si>
-  <si>
-    <t>entity_epic</t>
-  </si>
-  <si>
-    <t>entity_project</t>
-  </si>
-  <si>
-    <t>наличие footer</t>
-  </si>
-  <si>
-    <t>is_footer</t>
-  </si>
-  <si>
-    <t>наличие raw</t>
-  </si>
-  <si>
-    <t>period/entity</t>
-  </si>
-  <si>
-    <t>dataframe</t>
-  </si>
-  <si>
-    <t>pandas DataFrame</t>
-  </si>
-  <si>
-    <t>датафрейм</t>
-  </si>
-  <si>
-    <t>days_num</t>
-  </si>
-  <si>
-    <t>номер недели начальной даты</t>
-  </si>
-  <si>
-    <t>start_week_num</t>
-  </si>
-  <si>
-    <t>start_month_name</t>
-  </si>
-  <si>
-    <t>start_month_num</t>
-  </si>
-  <si>
-    <t>start_year</t>
-  </si>
-  <si>
-    <t>номер года начальной даты</t>
-  </si>
-  <si>
-    <t>номер месяца начальной даты</t>
-  </si>
-  <si>
-    <t>название месяца начальной даты</t>
-  </si>
-  <si>
-    <t>номер года конечной даты</t>
-  </si>
-  <si>
-    <t>номер месяца конечной даты</t>
-  </si>
-  <si>
-    <t>название месяца конечной даты</t>
-  </si>
-  <si>
-    <t>номер недели конечной даты</t>
-  </si>
-  <si>
-    <t>end_year</t>
-  </si>
-  <si>
-    <t>end_month_num</t>
-  </si>
-  <si>
-    <t>end_month_name</t>
-  </si>
-  <si>
-    <t>end_week_num</t>
-  </si>
-  <si>
-    <t>Строка</t>
-  </si>
-  <si>
-    <t>строка периода</t>
-  </si>
-  <si>
-    <t>str_period</t>
-  </si>
-  <si>
-    <t>min_year</t>
-  </si>
-  <si>
-    <t>max_year</t>
-  </si>
-  <si>
-    <t>Минимальный год</t>
-  </si>
-  <si>
-    <t>Максимальный год</t>
+    <t>строка для агрегированной части</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1380,6 +1381,9 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1397,12 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,8 +1685,8 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,23 +1717,23 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1840,7 +1838,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>41</v>
@@ -3407,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="A25:C26"/>
     </sheetView>
   </sheetViews>
@@ -3671,19 +3669,19 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -3695,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3706,7 +3704,7 @@
     <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
@@ -3725,7 +3723,7 @@
         <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>204</v>
@@ -3738,350 +3736,350 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="15" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="C16" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F16" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="22" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F17" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F19" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="22" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F20" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="22" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4116,176 +4114,176 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="15" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="C33" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4411,30 +4409,28 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4445,36 +4441,34 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
@@ -4484,7 +4478,7 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -4498,7 +4492,7 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -4511,35 +4505,35 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B59" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
         <v>259</v>
@@ -4547,129 +4541,132 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="3"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B68" s="3" t="s">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>224</v>
+        <v>146</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>71</v>
@@ -4677,10 +4674,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>71</v>
@@ -4688,32 +4685,32 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>71</v>
@@ -4721,65 +4718,65 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>238</v>
+        <v>79</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>101</v>
@@ -4787,10 +4784,10 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>101</v>
@@ -4798,10 +4795,10 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="3" t="s">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>101</v>
@@ -4809,12 +4806,23 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4897,12 +4905,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCD86D-CC45-409D-809D-41A8C365D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D5B04-5A69-4F25-B738-76EEEF805989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
-    <sheet name="Тесткейсы" sheetId="5" r:id="rId2"/>
-    <sheet name="Структура Input" sheetId="3" r:id="rId3"/>
-    <sheet name="Структура Task" sheetId="2" r:id="rId4"/>
-    <sheet name="Структура Report" sheetId="6" r:id="rId5"/>
+    <sheet name="Структура Report" sheetId="6" r:id="rId2"/>
+    <sheet name="Тесткейсы" sheetId="5" r:id="rId3"/>
+    <sheet name="Структура Input" sheetId="3" r:id="rId4"/>
+    <sheet name="Структура Task" sheetId="2" r:id="rId5"/>
     <sheet name="Файл настроек" sheetId="4" r:id="rId6"/>
     <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="302">
   <si>
     <t>Название части</t>
   </si>
@@ -247,11 +247,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t># Отчет по теме {название темы}
-либо
-# Отчет по теме {название темы} за период  с {дата начала} по {дата конца}</t>
   </si>
   <si>
     <r>
@@ -328,11 +323,6 @@
 Процент дней от общего количества, в которых были помидорки по теме: {Процент дней от общего количества, в которых были помидорки по теме}</t>
   </si>
   <si>
-    <t># Отчет по эпику {название эпика}
-либо
-# Отчет по эпику {название эпика} за период  с {дата начала} по {дата конца}</t>
-  </si>
-  <si>
     <t>Дата первого упоминания эпика: {дата первой записи в базе, содержащей запись по эпику}
 Дата последнего упоминания эпика: {дата последней записи в базе, содержащей запись по эпику}</t>
   </si>
@@ -351,16 +341,6 @@
   <si>
     <t>Всего дней, в которые упоминался проект: {количество дней, в которые упоминался проект}
 Процент дней от общего количества, в которых были помидорки по проекту: {Процент дней от общего количества, в которых были помидорки по проекту}</t>
-  </si>
-  <si>
-    <t># Отчет по проекту {название проекта}
-либо
-# Отчет по проекту {название проекта} за период с {дата начала} по {дата конца}</t>
-  </si>
-  <si>
-    <t># Отчет по задаче {название задачи}
-либо
-# Отчет по задаче {название задачи} за период с {дата начала} по {дата конца}</t>
   </si>
   <si>
     <t>Дата первого упоминания задачи: {дата первой записи в базе, содержащей запись по задаче}
@@ -1134,6 +1114,37 @@
   </si>
   <si>
     <t>строка для агрегированной части</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>дата начала отчета</t>
+  </si>
+  <si>
+    <t>дата конца конца отчета</t>
+  </si>
+  <si>
+    <t>дата начала по задаче</t>
+  </si>
+  <si>
+    <t>start_date_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Отчет по теме {название темы}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Отчет по эпику {название эпика}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Отчет по проекту {название проекта}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Отчет по задаче {название задачи}
+</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1401,6 +1412,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,8 +1702,8 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1761,28 +1778,28 @@
         <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1798,23 +1815,23 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -1823,43 +1840,43 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1888,28 +1905,28 @@
         <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
@@ -1919,43 +1936,43 @@
         <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1965,37 +1982,37 @@
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2007,43 +2024,43 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
@@ -2072,19 +2089,19 @@
         <v>24</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>24</v>
@@ -2100,37 +2117,37 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -2141,19 +2158,19 @@
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2171,19 +2188,19 @@
         <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2201,19 +2218,19 @@
         <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2250,25 +2267,25 @@
         <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>19</v>
@@ -2276,52 +2293,52 @@
     </row>
     <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2335,6 +2352,1160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79708BE6-27A9-456F-B60E-C1C786FD1BD6}">
   <dimension ref="A2:A11"/>
   <sheetViews>
@@ -2349,47 +3520,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +3568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L47"/>
   <sheetViews>
@@ -2413,7 +3584,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2428,107 +3599,107 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L4" s="9"/>
     </row>
@@ -2536,31 +3707,31 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L5" s="9"/>
     </row>
@@ -2568,31 +3739,31 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L6" s="9"/>
     </row>
@@ -2600,31 +3771,31 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L7" s="9"/>
     </row>
@@ -2632,56 +3803,56 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2692,31 +3863,31 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -2724,31 +3895,31 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L11" s="9"/>
     </row>
@@ -2756,31 +3927,31 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -2788,31 +3959,31 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -2820,31 +3991,31 @@
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L14" s="9"/>
     </row>
@@ -2852,67 +4023,67 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -2920,31 +4091,31 @@
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L17" s="14"/>
     </row>
@@ -2952,31 +4123,31 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L18" s="9"/>
     </row>
@@ -2984,31 +4155,31 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L19" s="9"/>
     </row>
@@ -3016,31 +4187,31 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L20" s="9"/>
     </row>
@@ -3048,203 +4219,203 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L26" s="9"/>
     </row>
@@ -3254,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>9</v>
@@ -3269,101 +4440,101 @@
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3401,7 +4572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -3419,1415 +4590,275 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:F89"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B69" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B70" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B86" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4847,70 +4878,70 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D5B04-5A69-4F25-B738-76EEEF805989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26AD970-7FAD-4348-AD48-120E33C43D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="304">
   <si>
     <t>Название части</t>
   </si>
@@ -778,9 +778,6 @@
     <t>процент дней от общего количества, в которых были помидорки по сущности</t>
   </si>
   <si>
-    <t>корень дерева отчета</t>
-  </si>
-  <si>
     <t>словарь узлов дерева отчета</t>
   </si>
   <si>
@@ -1145,6 +1142,15 @@
   <si>
     <t xml:space="preserve"># Отчет по задаче {название задачи}
 </t>
+  </si>
+  <si>
+    <t>строка детализированной части</t>
+  </si>
+  <si>
+    <t>str_detailed</t>
+  </si>
+  <si>
+    <t>detailed_tree</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1412,12 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,19 +1819,19 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -1843,37 +1843,37 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>40</v>
@@ -2293,52 +2293,52 @@
     </row>
     <row r="15" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2355,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2377,34 +2377,34 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2417,14 +2417,14 @@
         <v>157</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2433,14 +2433,14 @@
         <v>158</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2449,16 +2449,16 @@
         <v>159</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2467,7 +2467,7 @@
         <v>160</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>161</v>
@@ -2476,7 +2476,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2485,7 +2485,7 @@
         <v>162</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>161</v>
@@ -2494,7 +2494,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2503,7 +2503,7 @@
         <v>163</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>161</v>
@@ -2512,7 +2512,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2521,7 +2521,7 @@
         <v>164</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>154</v>
@@ -2530,7 +2530,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2539,7 +2539,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>161</v>
@@ -2548,7 +2548,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2557,7 +2557,7 @@
         <v>166</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>161</v>
@@ -2566,7 +2566,7 @@
         <v>62</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2575,7 +2575,7 @@
         <v>167</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>154</v>
@@ -2584,7 +2584,7 @@
         <v>62</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2593,7 +2593,7 @@
         <v>168</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>161</v>
@@ -2602,16 +2602,16 @@
         <v>62</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>161</v>
@@ -2620,16 +2620,16 @@
         <v>62</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>161</v>
@@ -2638,7 +2638,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2654,16 +2654,16 @@
         <v>62</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
@@ -2673,7 +2673,7 @@
         <v>170</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>171</v>
@@ -2682,7 +2682,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2691,14 +2691,14 @@
         <v>172</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2707,12 +2707,12 @@
         <v>173</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2721,12 +2721,12 @@
         <v>174</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2735,12 +2735,12 @@
         <v>175</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2762,7 +2762,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2778,42 +2778,42 @@
         <v>81</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2825,138 +2825,138 @@
         <v>177</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2978,7 +2978,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3004,7 +3004,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3016,7 +3016,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -3028,7 +3028,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3040,7 +3040,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3064,7 +3064,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -3076,16 +3076,16 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3100,29 +3100,33 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>253</v>
+      <c r="B52" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -3138,57 +3142,57 @@
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3204,27 +3208,27 @@
         <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3237,10 +3241,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3257,10 +3261,10 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -3269,7 +3273,7 @@
         <v>139</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -3278,7 +3282,7 @@
         <v>63</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>103</v>
@@ -3289,7 +3293,7 @@
         <v>140</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>141</v>
@@ -3300,7 +3304,7 @@
         <v>142</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="3"/>
     </row>
@@ -3309,7 +3313,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -3318,7 +3322,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>98</v>
@@ -3329,7 +3333,7 @@
         <v>65</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>99</v>
@@ -3337,10 +3341,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>67</v>
@@ -3351,7 +3355,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>67</v>
@@ -3362,7 +3366,7 @@
         <v>68</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>67</v>
@@ -3373,7 +3377,7 @@
         <v>153</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>154</v>
@@ -3384,7 +3388,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>67</v>
@@ -3395,7 +3399,7 @@
         <v>70</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>67</v>
@@ -3406,7 +3410,7 @@
         <v>155</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>154</v>
@@ -3417,7 +3421,7 @@
         <v>71</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>67</v>
@@ -3428,7 +3432,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>73</v>
@@ -3439,7 +3443,7 @@
         <v>74</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>67</v>
@@ -3450,7 +3454,7 @@
         <v>75</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>97</v>
@@ -3461,7 +3465,7 @@
         <v>96</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>97</v>
@@ -3472,7 +3476,7 @@
         <v>100</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>97</v>
@@ -3480,7 +3484,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>116</v>
@@ -3520,47 +3524,47 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3623,13 +3627,13 @@
         <v>79</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -3662,7 +3666,7 @@
         <v>111</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>112</v>
@@ -3696,7 +3700,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>112</v>
@@ -3728,7 +3732,7 @@
         <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>112</v>
@@ -3760,7 +3764,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>112</v>
@@ -3792,7 +3796,7 @@
         <v>111</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>112</v>
@@ -3824,7 +3828,7 @@
         <v>111</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>112</v>
@@ -3884,7 +3888,7 @@
         <v>111</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>112</v>
@@ -3916,7 +3920,7 @@
         <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>112</v>
@@ -3948,7 +3952,7 @@
         <v>111</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>112</v>
@@ -3980,7 +3984,7 @@
         <v>111</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>112</v>
@@ -4012,7 +4016,7 @@
         <v>111</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>112</v>
@@ -4044,7 +4048,7 @@
         <v>111</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>112</v>
@@ -4080,7 +4084,7 @@
         <v>111</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>112</v>
@@ -4112,7 +4116,7 @@
         <v>111</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>112</v>
@@ -4144,7 +4148,7 @@
         <v>111</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>112</v>
@@ -4176,7 +4180,7 @@
         <v>111</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>112</v>
@@ -4208,7 +4212,7 @@
         <v>111</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>112</v>
@@ -4240,7 +4244,7 @@
         <v>111</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>112</v>
@@ -4440,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -4595,10 +4599,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -4607,7 +4611,7 @@
         <v>139</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -4616,7 +4620,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>103</v>
@@ -4627,7 +4631,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>141</v>
@@ -4638,7 +4642,7 @@
         <v>142</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -4647,7 +4651,7 @@
         <v>143</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -4656,7 +4660,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>98</v>
@@ -4667,7 +4671,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>99</v>
@@ -4675,10 +4679,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>67</v>
@@ -4689,7 +4693,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
@@ -4700,7 +4704,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>67</v>
@@ -4711,7 +4715,7 @@
         <v>153</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>154</v>
@@ -4722,7 +4726,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>67</v>
@@ -4733,7 +4737,7 @@
         <v>70</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>67</v>
@@ -4744,7 +4748,7 @@
         <v>155</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>154</v>
@@ -4755,7 +4759,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>67</v>
@@ -4766,7 +4770,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>73</v>
@@ -4777,7 +4781,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>67</v>
@@ -4788,7 +4792,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>97</v>
@@ -4799,7 +4803,7 @@
         <v>96</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>97</v>
@@ -4810,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>97</v>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>116</v>
@@ -4840,19 +4844,19 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -4936,12 +4940,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26AD970-7FAD-4348-AD48-120E33C43D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174912B-A1E8-4D0B-9B39-C7A2655F72F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="313">
   <si>
     <t>Название части</t>
   </si>
@@ -1113,9 +1113,6 @@
     <t>строка для агрегированной части</t>
   </si>
   <si>
-    <t>se</t>
-  </si>
-  <si>
     <t>дата начала отчета</t>
   </si>
   <si>
@@ -1151,6 +1148,36 @@
   </si>
   <si>
     <t>detailed_tree</t>
+  </si>
+  <si>
+    <t>total_pom</t>
+  </si>
+  <si>
+    <t>max_norma_pom</t>
+  </si>
+  <si>
+    <t>norma_pom_part</t>
+  </si>
+  <si>
+    <t>real_pom_part</t>
+  </si>
+  <si>
+    <t>entity_first_date</t>
+  </si>
+  <si>
+    <t>entity_last_date</t>
+  </si>
+  <si>
+    <t>entity_num_dates</t>
+  </si>
+  <si>
+    <t>entity_part_dates</t>
+  </si>
+  <si>
+    <t>str_aggregated</t>
+  </si>
+  <si>
+    <t>entity_struct</t>
   </si>
 </sst>
 </file>
@@ -1701,9 +1728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1819,19 +1846,19 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -2355,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:F52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2778,7 +2805,7 @@
         <v>81</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>220</v>
@@ -2794,7 +2821,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>221</v>
@@ -2810,10 +2837,10 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2974,7 +3001,9 @@
       <c r="B41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -2986,7 +3015,9 @@
       <c r="B42" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>312</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>180</v>
       </c>
@@ -3000,7 +3031,9 @@
       <c r="B43" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -3012,7 +3045,9 @@
       <c r="B44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
@@ -3024,7 +3059,9 @@
       <c r="B45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
@@ -3036,7 +3073,9 @@
       <c r="B46" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>307</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -3048,7 +3087,9 @@
       <c r="B47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
@@ -3060,7 +3101,9 @@
       <c r="B48" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
@@ -3072,7 +3115,9 @@
       <c r="B49" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
@@ -3085,7 +3130,7 @@
         <v>291</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3104,10 +3149,10 @@
         <v>10</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3121,7 +3166,7 @@
         <v>188</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174912B-A1E8-4D0B-9B39-C7A2655F72F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E942F09E-C781-491B-BE84-6C93F25A8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1445,6 +1445,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,9 +1731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2382,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2995,132 +2998,132 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:6" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3551,6 +3554,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/Проектирование/Исходные данные.xlsx
+++ b/Docs/Проектирование/Исходные данные.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E942F09E-C781-491B-BE84-6C93F25A8203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D57C1F-67D1-4CE7-8DC3-D2232C1C840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описание шаблонов отчетов" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="319">
   <si>
     <t>Название части</t>
   </si>
@@ -1178,6 +1178,24 @@
   </si>
   <si>
     <t>entity_struct</t>
+  </si>
+  <si>
+    <t>list_notes</t>
+  </si>
+  <si>
+    <t>list_create</t>
+  </si>
+  <si>
+    <t>list_change</t>
+  </si>
+  <si>
+    <t>list_open</t>
+  </si>
+  <si>
+    <t>str_list</t>
+  </si>
+  <si>
+    <t>строка для части связей</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1445,9 +1463,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,9 +1746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2383,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FF220-C554-42EF-8AFE-DDB724CE5655}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3029,7 +3044,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>181</v>
@@ -3043,7 +3058,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
         <v>182</v>
@@ -3057,7 +3072,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>183</v>
@@ -3071,7 +3086,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>184</v>
@@ -3085,7 +3100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>185</v>
@@ -3186,18 +3201,20 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3206,7 +3223,9 @@
       <c r="B56" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="D56" s="3" t="s">
         <v>192</v>
       </c>
@@ -3220,7 +3239,9 @@
       <c r="B57" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="D57" s="3" t="s">
         <v>192</v>
       </c>
@@ -3234,7 +3255,9 @@
       <c r="B58" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="D58" s="3" t="s">
         <v>192</v>
       </c>
@@ -3245,35 +3268,33 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B61" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
         <v>254</v>
@@ -3281,173 +3302,176 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>283</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="3" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="3" t="s">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="3" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="3" t="s">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="3" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="3" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>224</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>67</v>
@@ -3455,65 +3479,65 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="3" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>230</v>
+        <v>71</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>231</v>
+        <v>72</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>233</v>
+        <v>75</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>97</v>
@@ -3521,10 +3545,10 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>97</v>
@@ -3532,10 +3556,10 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>97</v>
@@ -3543,12 +3567,23 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3625,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E6F6A-8F05-485F-9DF3-92E9ACD14D78}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4554,9 +4589,7 @@
       <c r="E37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
         <v>107</v>
       </c>
@@ -4581,7 +4614,7 @@
         <v>107</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>107</v>
@@ -4629,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D10E82-E439-4A49-9A7E-B06E93F1AC61}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="A25:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
